--- a/RUDN/Importance/Varible_muatal_class_in_Caribbean.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Caribbean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>Forest area (sq. km)</t>
   </si>
@@ -43,12 +43,12 @@
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
@@ -115,33 +115,33 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
+    <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -154,1297 +154,1303 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of children under 5)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
     <t>Prevalence of overweight (% of children under 5)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Completeness of birth registration (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Educational attainment, some primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.037357523910062</v>
+        <v>1.039105775658314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1890,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.018716932005167</v>
+        <v>1.008263450069945</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1898,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.008263450069945</v>
+        <v>1.004993084486853</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1930,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9863263961964452</v>
+        <v>0.9888776716498187</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1938,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9847140419617133</v>
+        <v>0.9863263961964452</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1946,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9846924629191554</v>
+        <v>0.9847140419617133</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2002,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9701340027313243</v>
+        <v>0.9711330037303254</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2074,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9552965868449574</v>
+        <v>0.9541310856794563</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2082,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9513978395197451</v>
+        <v>0.949743282340604</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2090,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.949743282340604</v>
+        <v>0.9481097565812042</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2098,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9481097565812042</v>
+        <v>0.9470213539193748</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2106,7 +2112,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9470213539193748</v>
+        <v>0.9462693821185604</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2114,7 +2120,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.940502697750369</v>
+        <v>0.9421425497398714</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2122,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9403413206659152</v>
+        <v>0.940502697750369</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2130,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9362066635592301</v>
+        <v>0.9392064415590082</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2138,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.934419387121604</v>
+        <v>0.9351612637376063</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2146,7 +2152,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9323640609404036</v>
+        <v>0.934419387121604</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2170,7 +2176,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9290646602633803</v>
+        <v>0.9276660588647792</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2178,7 +2184,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9290343458408408</v>
+        <v>0.9267033435098384</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2186,7 +2192,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9258088057837499</v>
+        <v>0.9263890336367049</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2194,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9255149077625791</v>
+        <v>0.9258088057837499</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2210,7 +2216,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9181804007777223</v>
+        <v>0.9196372772345989</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2218,7 +2224,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.917161819514386</v>
+        <v>0.9169005527537903</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2234,7 +2240,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9143499363703349</v>
+        <v>0.915348937369336</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2242,7 +2248,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9133833538911087</v>
+        <v>0.9141680738067366</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2250,7 +2256,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9100509525258966</v>
+        <v>0.9133833538911087</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2266,7 +2272,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9098722171198885</v>
+        <v>0.9091021933820045</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2274,7 +2280,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9091021933820045</v>
+        <v>0.9077075403048618</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2282,7 +2288,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9013638839612057</v>
+        <v>0.9046274618751333</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2290,7 +2296,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9004402474655739</v>
+        <v>0.9005573643918312</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2306,7 +2312,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.900012503270047</v>
+        <v>0.9004402474655739</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2314,7 +2320,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.8997273309260512</v>
+        <v>0.8995827591031578</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2322,7 +2328,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8991057856675255</v>
+        <v>0.8981185638761078</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2330,7 +2336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8969541404431247</v>
+        <v>0.8972020784007988</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2338,7 +2344,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8966690061894049</v>
+        <v>0.8969541404431247</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2346,7 +2352,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.8925009200591634</v>
+        <v>0.8912805717799914</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2354,7 +2360,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.8898510543848221</v>
+        <v>0.8900794945174082</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2362,7 +2368,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8883541664060335</v>
+        <v>0.8886348686098129</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2370,7 +2376,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.8868743663122802</v>
+        <v>0.8875200520538196</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2378,7 +2384,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.8865652210856196</v>
+        <v>0.8861767206971192</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2386,7 +2392,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.8839728639478079</v>
+        <v>0.8772977073768164</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2394,7 +2400,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.8781297586656118</v>
+        <v>0.8751869528891698</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2402,7 +2408,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8774632119836105</v>
+        <v>0.8747394864102889</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2410,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8772977073768164</v>
+        <v>0.8743046766572431</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2418,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8751869528891698</v>
+        <v>0.8735721535470977</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2426,7 +2432,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8747394864102889</v>
+        <v>0.873324295344694</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2434,7 +2440,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8742214265739932</v>
+        <v>0.8718353511109946</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2442,7 +2448,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8718353511109946</v>
+        <v>0.8686598851075282</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2450,7 +2456,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8681144216907644</v>
+        <v>0.8674872710636139</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2458,7 +2464,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.8675332339808772</v>
+        <v>0.867211780509217</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2466,7 +2472,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8654635287609653</v>
+        <v>0.8636123649468319</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2474,7 +2480,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8632295544990192</v>
+        <v>0.862857110495497</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2482,7 +2488,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8629187626489514</v>
+        <v>0.8624525537220182</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2490,7 +2496,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8607338082095664</v>
+        <v>0.8612933678417385</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2498,7 +2504,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8593000106344775</v>
+        <v>0.8607338082095664</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2506,7 +2512,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8583184678388667</v>
+        <v>0.8585945029925239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2522,7 +2528,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8557647084669253</v>
+        <v>0.8576827399304114</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2530,7 +2536,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8528986786737593</v>
+        <v>0.8567978013196684</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2538,7 +2544,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.852535375753841</v>
+        <v>0.8557647084669253</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2546,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8521630265435649</v>
+        <v>0.8528986786737593</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2554,7 +2560,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8467281642031084</v>
+        <v>0.8527318827068269</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2562,7 +2568,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8427449530318833</v>
+        <v>0.8497877017906179</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2570,7 +2576,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8427391461588547</v>
+        <v>0.8483285561243108</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2578,7 +2584,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8406515358628481</v>
+        <v>0.8467281642031084</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2586,7 +2592,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.840304634353005</v>
+        <v>0.845170019550558</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2594,7 +2600,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.8400283379445126</v>
+        <v>0.8444889116142054</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2602,7 +2608,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8398369506047334</v>
+        <v>0.8420398454595539</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2610,7 +2616,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.8377439180685124</v>
+        <v>0.8397774099887223</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2618,7 +2624,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8374924863794009</v>
+        <v>0.8377439180685124</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2626,7 +2632,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8360114637319773</v>
+        <v>0.8362987342149091</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2634,7 +2640,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8324270127516071</v>
+        <v>0.8360114637319773</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2642,7 +2648,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8322762014484182</v>
+        <v>0.8323218605794045</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2658,7 +2664,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.831822360079904</v>
+        <v>0.8315180343950765</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2666,7 +2672,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.8297328343581281</v>
+        <v>0.8286939104045516</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2674,7 +2680,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.8286939104045516</v>
+        <v>0.8278666711549065</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2682,7 +2688,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.8256710100431615</v>
+        <v>0.8248801342522858</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2690,7 +2696,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8239918200723306</v>
+        <v>0.8247688208493313</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2698,7 +2704,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.8236571605593492</v>
+        <v>0.8238799796214555</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2706,7 +2712,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8228793572515085</v>
+        <v>0.8236730080451593</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2714,7 +2720,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8207208333097677</v>
+        <v>0.8236571605593492</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2722,7 +2728,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.820637761351193</v>
+        <v>0.8231579288131894</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2730,7 +2736,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8201660384542737</v>
+        <v>0.8229891016018778</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2738,7 +2744,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8178943336426763</v>
+        <v>0.8222538035460363</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2746,7 +2752,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8167338675130076</v>
+        <v>0.820637761351193</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2754,7 +2760,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8158931406632763</v>
+        <v>0.8198860183924312</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2762,7 +2768,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8157894739112712</v>
+        <v>0.8167338675130076</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2770,7 +2776,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8145819664898433</v>
+        <v>0.8165578003788985</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2778,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8140645679753069</v>
+        <v>0.8158931406632763</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2786,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.813275376760193</v>
+        <v>0.8149191806458733</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2794,7 +2800,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8129422897311962</v>
+        <v>0.8130655669763061</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2802,7 +2808,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.812588178314871</v>
+        <v>0.8119776360393756</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2818,7 +2824,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8102118976175321</v>
+        <v>0.8118347137425903</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2826,7 +2832,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.807669916342767</v>
+        <v>0.8111940379829445</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2834,7 +2840,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8028451899530553</v>
+        <v>0.8102118976175321</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2842,7 +2848,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8024570798096462</v>
+        <v>0.807669916342767</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2850,7 +2856,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.7994770853147724</v>
+        <v>0.8025010896089551</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2858,7 +2864,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.7981724054010924</v>
+        <v>0.7935343501917838</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2866,7 +2872,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.7935343501917838</v>
+        <v>0.791322136520894</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2874,7 +2880,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.7918922186127151</v>
+        <v>0.7879191980783162</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2882,7 +2888,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.7879191980783162</v>
+        <v>0.7848321423945532</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2890,7 +2896,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.7874091027922445</v>
+        <v>0.7790180520043193</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2898,7 +2904,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.7848321423945532</v>
+        <v>0.7789261458758026</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2906,7 +2912,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.7816048291653634</v>
+        <v>0.7778961393004307</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2914,7 +2920,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.7790180520043193</v>
+        <v>0.7772886584873788</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2922,7 +2928,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.7789261458758026</v>
+        <v>0.7760173579153788</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2930,7 +2936,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.7778961393004307</v>
+        <v>0.7744712738518122</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2938,7 +2944,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.7772886584873788</v>
+        <v>0.7734070408819851</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2946,7 +2952,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.7744712738518122</v>
+        <v>0.7730589675730466</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2954,7 +2960,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.7736617298604505</v>
+        <v>0.7730589675730466</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2962,7 +2968,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.7734070408819851</v>
+        <v>0.7713907490929661</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2970,7 +2976,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.7730589675730466</v>
+        <v>0.7709050118898826</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2978,7 +2984,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.7730589675730466</v>
+        <v>0.769421428592177</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2986,7 +2992,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.7726532636381342</v>
+        <v>0.7664943663111559</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2994,7 +3000,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.7713907490929661</v>
+        <v>0.7643734656770811</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3002,7 +3008,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.7659116157284054</v>
+        <v>0.7586318760719091</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3010,7 +3016,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.7593298011054446</v>
+        <v>0.7562467603741567</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3018,7 +3024,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7580876574681961</v>
+        <v>0.7478304458540384</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3026,7 +3032,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7562467603741567</v>
+        <v>0.7454675047565171</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3034,7 +3040,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7529757530555923</v>
+        <v>0.7445246934332581</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3042,7 +3048,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.7478304458540384</v>
+        <v>0.7411830937154129</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3050,7 +3056,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7454675047565171</v>
+        <v>0.7411830937154129</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3058,7 +3064,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.7445246934332581</v>
+        <v>0.7408052095154756</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3066,7 +3072,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.7411830937154129</v>
+        <v>0.740748080846271</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3074,7 +3080,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.7411830937154129</v>
+        <v>0.7400631710213037</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3082,7 +3088,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.740748080846271</v>
+        <v>0.7392488892064051</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3090,7 +3096,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.7392488892064051</v>
+        <v>0.7382077917535539</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3098,7 +3104,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7382077917535539</v>
+        <v>0.7376868703807002</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3106,7 +3112,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.7376868703807002</v>
+        <v>0.734221784809773</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3114,7 +3120,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.734221784809773</v>
+        <v>0.7277460536217015</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3122,7 +3128,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.7277460536217015</v>
+        <v>0.7239867867571113</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3130,7 +3136,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.7257920975502585</v>
+        <v>0.7238308723730644</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3146,7 +3152,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.7219685932380582</v>
+        <v>0.7209541878480956</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3154,7 +3160,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.7194593090712882</v>
+        <v>0.7175266063861307</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3162,7 +3168,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.7175266063861307</v>
+        <v>0.7152661433180107</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3170,7 +3176,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.7174927272036111</v>
+        <v>0.7152475179240252</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3178,7 +3184,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.7152475179240252</v>
+        <v>0.7131324378626267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3186,7 +3192,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.7144528516945863</v>
+        <v>0.7096264275783815</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3194,7 +3200,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.7103257282776823</v>
+        <v>0.7092527123045795</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3202,7 +3208,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.7090750357465987</v>
+        <v>0.7077239316805148</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3210,7 +3216,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.7077239316805148</v>
+        <v>0.7012883767178661</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3218,7 +3224,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.7013648241534707</v>
+        <v>0.700308774792386</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3226,7 +3232,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.700752801182291</v>
+        <v>0.6963486195053818</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3234,7 +3240,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.6934280699681719</v>
+        <v>0.6944812320353198</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3242,7 +3248,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.6933794441585841</v>
+        <v>0.6932972225728662</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3258,7 +3264,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6901250450999894</v>
+        <v>0.6905819903304762</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3290,7 +3296,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6870855973669581</v>
+        <v>0.6870372677827974</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3298,7 +3304,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6870372677827974</v>
+        <v>0.6778081299981675</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3306,7 +3312,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6856507218319599</v>
+        <v>0.6725515645236833</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3314,7 +3320,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.6778081299981675</v>
+        <v>0.6678545873708723</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3338,7 +3344,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.6665669912060268</v>
+        <v>0.6659262745067847</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3346,7 +3352,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6659262745067847</v>
+        <v>0.6649154852667118</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3354,7 +3360,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.6649154852667118</v>
+        <v>0.6648938007865286</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3362,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.6648938007865286</v>
+        <v>0.6642384647810107</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3370,7 +3376,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.6642384647810107</v>
+        <v>0.6612030789578518</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3378,7 +3384,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.6622748543331287</v>
+        <v>0.6574838683463073</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3386,7 +3392,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6612030789578518</v>
+        <v>0.6553644003994037</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3402,7 +3408,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6535111254692059</v>
+        <v>0.6510480524166877</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3418,7 +3424,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6510480524166877</v>
+        <v>0.6480346618767192</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3426,7 +3432,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6495684571657789</v>
+        <v>0.6454522307335913</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3458,7 +3464,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6399733738684967</v>
+        <v>0.6379607618344156</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3466,7 +3472,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.6289731779779246</v>
+        <v>0.6357696190866349</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3474,7 +3480,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6282482078735014</v>
+        <v>0.6331752559586132</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3482,7 +3488,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6267760424631492</v>
+        <v>0.6323712828747974</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3490,7 +3496,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.6248059534913593</v>
+        <v>0.6286116643373738</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3498,7 +3504,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6245817604349981</v>
+        <v>0.6267760424631492</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3506,7 +3512,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6217738678855562</v>
+        <v>0.6232375238634891</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3514,7 +3520,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.6210250503006938</v>
+        <v>0.6225795781462313</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3522,7 +3528,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6202818022113292</v>
+        <v>0.6217738678855562</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3530,7 +3536,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6163527247501004</v>
+        <v>0.615890866411259</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3538,7 +3544,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.615890866411259</v>
+        <v>0.6124021796023316</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3546,7 +3552,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6124021796023316</v>
+        <v>0.6115606567495071</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3570,7 +3576,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6078332287487471</v>
+        <v>0.6079365153735752</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3586,7 +3592,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5997473543031238</v>
+        <v>0.6013403449516528</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3610,7 +3616,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5970384526051058</v>
+        <v>0.5966540354149554</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3618,7 +3624,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5966540354149554</v>
+        <v>0.5915337611915501</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3626,7 +3632,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5954361244308224</v>
+        <v>0.5903138265159027</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3634,7 +3640,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5944465006452211</v>
+        <v>0.5887296870735708</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3642,7 +3648,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5919575668677231</v>
+        <v>0.588595387243158</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3650,7 +3656,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.589447661807599</v>
+        <v>0.5884148503950979</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3658,7 +3664,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5887296870735708</v>
+        <v>0.5879569148130614</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3666,7 +3672,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.588595387243158</v>
+        <v>0.5731948659243216</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3674,7 +3680,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5884148503950979</v>
+        <v>0.571840862893833</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3682,7 +3688,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.5872386511787218</v>
+        <v>0.5707510428387266</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3690,7 +3696,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.584317235970502</v>
+        <v>0.5672195586156767</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3698,7 +3704,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5822295203778647</v>
+        <v>0.5662378514626929</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3706,7 +3712,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5721868399507095</v>
+        <v>0.5660064745630302</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3714,7 +3720,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.571840862893833</v>
+        <v>0.5656583286376207</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3722,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5707510428387266</v>
+        <v>0.5656488647925699</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3730,7 +3736,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5706310738607838</v>
+        <v>0.5653126665176691</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3738,7 +3744,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5660064745630302</v>
+        <v>0.5613872157183384</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3746,7 +3752,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5653126665176691</v>
+        <v>0.5612734285735477</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3754,7 +3760,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5613872157183384</v>
+        <v>0.5541861719079508</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3762,7 +3768,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5560648432601214</v>
+        <v>0.550658856707499</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3770,7 +3776,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5559573637325284</v>
+        <v>0.5504189912506869</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3778,7 +3784,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5541861719079508</v>
+        <v>0.5480196426761397</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3786,7 +3792,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5473459352768961</v>
+        <v>0.5435646342376017</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3794,7 +3800,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5471931455643837</v>
+        <v>0.5433914117109349</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3802,7 +3808,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5422738635085087</v>
+        <v>0.5423837190400025</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3810,7 +3816,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5406547175179435</v>
+        <v>0.5422738635085087</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3834,7 +3840,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5376327590960024</v>
+        <v>0.5384750766262931</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3842,7 +3848,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5364378419038811</v>
+        <v>0.5360664184555344</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3850,7 +3856,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5350677091703238</v>
+        <v>0.5333768168512822</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3866,7 +3872,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5300568360541038</v>
+        <v>0.5330209125804439</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3874,7 +3880,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.5292586892093403</v>
+        <v>0.5328461265827427</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3882,7 +3888,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5279814000892116</v>
+        <v>0.5256990270689241</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3898,7 +3904,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5188390687051125</v>
+        <v>0.5206393331066501</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3906,7 +3912,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.5150717268423666</v>
+        <v>0.5172602300955484</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3914,7 +3920,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.514145594763121</v>
+        <v>0.5150886775377213</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3922,7 +3928,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5135054722276853</v>
+        <v>0.5070012366190662</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3930,7 +3936,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5070012366190662</v>
+        <v>0.5068376587978849</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3938,7 +3944,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5010585182934451</v>
+        <v>0.5040143282592828</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3946,7 +3952,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4954453885149006</v>
+        <v>0.5010585182934451</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3954,7 +3960,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.492600228516924</v>
+        <v>0.4970191181698473</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3962,7 +3968,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.4874397414802043</v>
+        <v>0.4939606733586708</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3970,7 +3976,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.4818569392858538</v>
+        <v>0.4932145949111613</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3978,7 +3984,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.481356741123401</v>
+        <v>0.492600228516924</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3986,7 +3992,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4812773282218037</v>
+        <v>0.4909488661612167</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3994,7 +4000,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4811924187701733</v>
+        <v>0.4902508313963485</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4002,7 +4008,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.4802971278239221</v>
+        <v>0.4900159367897494</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4010,7 +4016,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4792386213689044</v>
+        <v>0.4888578110058399</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4018,7 +4024,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4790722824714972</v>
+        <v>0.4878505421103316</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4026,7 +4032,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4774391899983825</v>
+        <v>0.4811924187701733</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4034,7 +4040,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4759384983972872</v>
+        <v>0.4804826154466877</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4042,7 +4048,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4707583015497674</v>
+        <v>0.4766231490209203</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4050,7 +4056,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4706725729901229</v>
+        <v>0.4759384983972872</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4058,7 +4064,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4705079652823108</v>
+        <v>0.4748250850245233</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4066,7 +4072,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4677350947573384</v>
+        <v>0.4747993750151607</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4074,7 +4080,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4669077116702749</v>
+        <v>0.4727838320208653</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4082,7 +4088,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4659051345250185</v>
+        <v>0.4712480117139579</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4090,7 +4096,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4633806475358468</v>
+        <v>0.4676076431523557</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4098,7 +4104,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4617499746230596</v>
+        <v>0.4669445522874727</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4106,7 +4112,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4582263369498585</v>
+        <v>0.4658788687937463</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4114,7 +4120,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4570939055001562</v>
+        <v>0.4616041449823696</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4122,7 +4128,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4567366739304606</v>
+        <v>0.4594105254842775</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4130,7 +4136,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4553157819371221</v>
+        <v>0.4582263369498585</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4138,7 +4144,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4532462798308485</v>
+        <v>0.4550191734386912</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4146,7 +4152,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4527461838681031</v>
+        <v>0.4540156472306294</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4154,7 +4160,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4527376604025002</v>
+        <v>0.453148544766848</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4178,7 +4184,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.4471205293216034</v>
+        <v>0.4500051218251422</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4186,7 +4192,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.4467459728649679</v>
+        <v>0.4494271542980717</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4194,7 +4200,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4465954898451558</v>
+        <v>0.4487649208332565</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4202,7 +4208,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.443443947075203</v>
+        <v>0.4428102112310617</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4210,7 +4216,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.4408558878754563</v>
+        <v>0.4422309582009687</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4218,7 +4224,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.4406922091297742</v>
+        <v>0.4415038730999945</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4226,7 +4232,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4371072036240902</v>
+        <v>0.441224767560296</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4234,7 +4240,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.4355239692677115</v>
+        <v>0.4408558878754563</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4242,7 +4248,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4349845866221851</v>
+        <v>0.4392129301285912</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4250,7 +4256,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.4345687589707454</v>
+        <v>0.4355239692677115</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4258,7 +4264,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.4333943155583113</v>
+        <v>0.430335148434277</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4266,7 +4272,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.4333087993322644</v>
+        <v>0.429215053748824</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4274,7 +4280,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4319637349388801</v>
+        <v>0.4291431711634837</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4282,7 +4288,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.4309604057045318</v>
+        <v>0.4261596540562465</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4290,7 +4296,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.430077586637889</v>
+        <v>0.4254391893500702</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4298,7 +4304,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4285381803837562</v>
+        <v>0.424549529281401</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4306,7 +4312,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.428204684199128</v>
+        <v>0.4214428336077118</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4314,7 +4320,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.4280000214208719</v>
+        <v>0.4189675539889266</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4322,7 +4328,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.4269876149319962</v>
+        <v>0.4186972081577487</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4330,7 +4336,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.4246405250794862</v>
+        <v>0.4145288257093815</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4338,7 +4344,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.424549529281401</v>
+        <v>0.408471795686731</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4346,7 +4352,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.4205559187935002</v>
+        <v>0.4045848254614441</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4354,7 +4360,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.4190823201774319</v>
+        <v>0.4044501918053907</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4362,7 +4368,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.4180015519665476</v>
+        <v>0.4032487066427055</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4370,7 +4376,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.4176615413116587</v>
+        <v>0.4022510981502396</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4378,7 +4384,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.4159751164718934</v>
+        <v>0.4004910399271773</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4386,7 +4392,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.4158122674223308</v>
+        <v>0.3992558783877576</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4394,7 +4400,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.4143528632408393</v>
+        <v>0.3970900842149159</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4402,7 +4408,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.4126484602755562</v>
+        <v>0.3944333348342837</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4410,7 +4416,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.409579021793957</v>
+        <v>0.3941121060377726</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4418,7 +4424,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.4095589909825013</v>
+        <v>0.3939302568768177</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4426,7 +4432,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.405535039543915</v>
+        <v>0.3918370583081672</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4434,7 +4440,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4044501918053907</v>
+        <v>0.3903951198120938</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4442,7 +4448,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.4043545320764623</v>
+        <v>0.3894187952129062</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4450,7 +4456,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.4022401618804268</v>
+        <v>0.3889891459312034</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4458,7 +4464,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3984631433843382</v>
+        <v>0.3863481274455465</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4466,7 +4472,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3945517326985093</v>
+        <v>0.3818319631710478</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4474,7 +4480,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3935905801204171</v>
+        <v>0.3806800960547279</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4482,7 +4488,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.3927034820088537</v>
+        <v>0.379806446755097</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4490,7 +4496,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3898810946595197</v>
+        <v>0.3765158318152408</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4498,7 +4504,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.3894062598426205</v>
+        <v>0.370851407486487</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4506,7 +4512,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.383102890150371</v>
+        <v>0.3684789942464759</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4514,7 +4520,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.381905039560005</v>
+        <v>0.3682545801519566</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4522,7 +4528,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.3773735203503412</v>
+        <v>0.366034819552062</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4530,7 +4536,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3657427906505919</v>
+        <v>0.3659365903108873</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4538,7 +4544,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.3604623401745271</v>
+        <v>0.3657427906505919</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4546,7 +4552,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3576461455360402</v>
+        <v>0.3585194261319786</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4554,7 +4560,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.356995259166426</v>
+        <v>0.3581686047851982</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4562,7 +4568,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3556717614463776</v>
+        <v>0.3510532376477242</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4570,7 +4576,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3491660152677032</v>
+        <v>0.3438243496925328</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4578,7 +4584,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3478883968269446</v>
+        <v>0.3404569941813056</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4586,7 +4592,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3461618234346466</v>
+        <v>0.3383810990273117</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4594,7 +4600,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3422608664841309</v>
+        <v>0.3348971264254959</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4602,7 +4608,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.3411155661040897</v>
+        <v>0.3310878177595269</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4610,7 +4616,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.3379662020589769</v>
+        <v>0.327927734992687</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4618,7 +4624,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.3372625279700239</v>
+        <v>0.32676238750898</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4626,7 +4632,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.3322330395049737</v>
+        <v>0.3253601708554232</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4634,7 +4640,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.326335704455885</v>
+        <v>0.3249021329453567</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4642,7 +4648,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.3257735368689929</v>
+        <v>0.324766347884659</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4650,7 +4656,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.3257621924266734</v>
+        <v>0.3216695744124447</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4658,7 +4664,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.3255290438767282</v>
+        <v>0.318092774224072</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4666,7 +4672,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.3249095310774006</v>
+        <v>0.3167325139254151</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4674,7 +4680,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.324766347884659</v>
+        <v>0.3129226404350427</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4682,7 +4688,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.3199351587442474</v>
+        <v>0.2985168272093521</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4690,7 +4696,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.317271013764548</v>
+        <v>0.2970073312107324</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4698,7 +4704,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.3014143650691665</v>
+        <v>0.2922031917737065</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4706,7 +4712,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2940366368900122</v>
+        <v>0.2813695099888294</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4714,7 +4720,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2834163315912335</v>
+        <v>0.2780931586768411</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4722,7 +4728,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2783681028586682</v>
+        <v>0.277846734727397</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4730,7 +4736,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2772077394507897</v>
+        <v>0.2757277512129219</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4738,7 +4744,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2757277512129219</v>
+        <v>0.2725909747031381</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4746,7 +4752,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.273016563958913</v>
+        <v>0.2668412128913782</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4754,7 +4760,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2668412128913782</v>
+        <v>0.2650645830004987</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4762,7 +4768,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2630874151273661</v>
+        <v>0.2645363253416864</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4770,7 +4776,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2542286446667641</v>
+        <v>0.2482115022865929</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4778,7 +4784,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2490999731667025</v>
+        <v>0.2416308420287954</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4786,7 +4792,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2395549773863517</v>
+        <v>0.2305056901035449</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4794,7 +4800,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2317558273828055</v>
+        <v>0.2203072044670042</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4802,7 +4808,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2307383093040352</v>
+        <v>0.2117238638180012</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4810,7 +4816,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2305056901035449</v>
+        <v>0.2114659392718539</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4818,7 +4824,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2253234218344418</v>
+        <v>0.2085899121878334</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4826,7 +4832,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2227797041765309</v>
+        <v>0.2063519699173886</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4834,7 +4840,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2196305147501914</v>
+        <v>0.2057896003158795</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4842,7 +4848,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2159308851333013</v>
+        <v>0.199181245922295</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4850,7 +4856,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.2146824436996579</v>
+        <v>0.1983271702954958</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4858,7 +4864,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.206234247236694</v>
+        <v>0.1962028139609937</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4866,7 +4872,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2033183833184395</v>
+        <v>0.1877086205912799</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4874,7 +4880,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.2019128181901588</v>
+        <v>0.1876891576708075</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4882,7 +4888,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.2001033415026388</v>
+        <v>0.1867944483544655</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4890,7 +4896,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1957858910636008</v>
+        <v>0.182902562410636</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4898,7 +4904,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1957432114858952</v>
+        <v>0.182078860112221</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4906,7 +4912,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1949565005709637</v>
+        <v>0.1807357187746288</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4914,7 +4920,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1927735066229239</v>
+        <v>0.1777050916416743</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4922,7 +4928,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1909271737915967</v>
+        <v>0.1697277778953354</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4930,7 +4936,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1886801341759814</v>
+        <v>0.1693689037210264</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4938,7 +4944,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.185165613036826</v>
+        <v>0.1688508200806873</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4946,7 +4952,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1790539087251048</v>
+        <v>0.1679621693482913</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4954,7 +4960,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1785544043117131</v>
+        <v>0.1673064122631795</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4962,7 +4968,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1782900677135757</v>
+        <v>0.1628208172110568</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4970,7 +4976,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1780865777308176</v>
+        <v>0.162319365786868</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4978,7 +4984,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.176627137431556</v>
+        <v>0.1597464898742977</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4986,7 +4992,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1759735510678797</v>
+        <v>0.158828797867719</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4994,7 +5000,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1736998927855951</v>
+        <v>0.158462621077901</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5002,7 +5008,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1721714463460537</v>
+        <v>0.1526396544509043</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5010,7 +5016,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1709850958237786</v>
+        <v>0.1519620768224625</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5018,7 +5024,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1631494090445045</v>
+        <v>0.1495746177949917</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5026,7 +5032,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1627408268653723</v>
+        <v>0.1483774276827194</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5034,7 +5040,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1603546065816777</v>
+        <v>0.1476110116386105</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5042,7 +5048,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1575437055865336</v>
+        <v>0.147442078337223</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5050,7 +5056,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.156845966829227</v>
+        <v>0.1465627716627063</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5058,7 +5064,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1554893074705856</v>
+        <v>0.1452385484751608</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5066,7 +5072,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1535719006433542</v>
+        <v>0.1446230070283698</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5074,7 +5080,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1520444520649662</v>
+        <v>0.1436307897100642</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5082,7 +5088,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.1495576217141228</v>
+        <v>0.1414445657970997</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5090,7 +5096,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.1491401000675872</v>
+        <v>0.1399402141530517</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5098,7 +5104,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1480509326887709</v>
+        <v>0.1390466565216002</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5106,7 +5112,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1416173046112252</v>
+        <v>0.1365109869111116</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5114,7 +5120,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.1409844417419699</v>
+        <v>0.1326411583815079</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5122,7 +5128,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.139278165802488</v>
+        <v>0.1320262861239974</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5130,7 +5136,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1353052907977714</v>
+        <v>0.1314955342352402</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5138,7 +5144,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1320290889570728</v>
+        <v>0.1311604089837313</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5146,7 +5152,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.131275232243953</v>
+        <v>0.12828808676146</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5154,7 +5160,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1299748825273106</v>
+        <v>0.1281705811310327</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5162,7 +5168,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.1259102314643177</v>
+        <v>0.1279623571060489</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5170,7 +5176,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.1258521055544881</v>
+        <v>0.127767769065992</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5178,7 +5184,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1192118262665092</v>
+        <v>0.126358613771498</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5186,7 +5192,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1184852415346944</v>
+        <v>0.1259471549622084</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5194,7 +5200,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.1148894096124484</v>
+        <v>0.1241604864523436</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5202,7 +5208,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.1146398481592421</v>
+        <v>0.123639810570553</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5210,7 +5216,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.1113748267238168</v>
+        <v>0.1225999917110798</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5218,7 +5224,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1113468981189314</v>
+        <v>0.117190053821572</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5226,7 +5232,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1088436762442961</v>
+        <v>0.1161184213564268</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5234,7 +5240,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.107797993506026</v>
+        <v>0.1143536451753702</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5242,7 +5248,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1076109133987242</v>
+        <v>0.1139086482325986</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5250,7 +5256,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.104977697706143</v>
+        <v>0.1135927806799362</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5258,7 +5264,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1042980271269298</v>
+        <v>0.1128031548042705</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5266,7 +5272,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.09872579198709364</v>
+        <v>0.1121153067076606</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5274,7 +5280,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.09847993884343875</v>
+        <v>0.1115525881545396</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5282,7 +5288,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.09835152855900331</v>
+        <v>0.1109887777538365</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5290,7 +5296,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.09392288384674075</v>
+        <v>0.1101757961232421</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5298,7 +5304,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.09107352641760835</v>
+        <v>0.10990532093559</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5306,7 +5312,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.09045469381266136</v>
+        <v>0.10639603453994</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5314,7 +5320,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.08898206537014119</v>
+        <v>0.1055103828868085</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5322,7 +5328,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.08765769401064372</v>
+        <v>0.1024203002133404</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5330,7 +5336,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.0860601256456579</v>
+        <v>0.1020693897003555</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5338,7 +5344,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.08511856510958049</v>
+        <v>0.09818015730240437</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5346,7 +5352,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.08413275304261214</v>
+        <v>0.09359699025253021</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5354,7 +5360,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.08183832375553446</v>
+        <v>0.09264378246485538</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5362,7 +5368,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.0802926316464847</v>
+        <v>0.08754500026826117</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5370,7 +5376,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.07784774815650652</v>
+        <v>0.08732279905099194</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5378,7 +5384,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.07426725872907336</v>
+        <v>0.08653754370552624</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5386,7 +5392,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.07125768305293123</v>
+        <v>0.0840867710900699</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5394,7 +5400,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.07048371020547983</v>
+        <v>0.08137051760719305</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5402,7 +5408,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.06924573563351721</v>
+        <v>0.08092863393199901</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5410,7 +5416,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.06902503955411676</v>
+        <v>0.07798891174056433</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5418,7 +5424,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.06764048720709148</v>
+        <v>0.07487259777265143</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5426,7 +5432,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.06677411069460937</v>
+        <v>0.0747391180001693</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5434,7 +5440,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.06675841602545751</v>
+        <v>0.07302604163237381</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5442,7 +5448,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.06349466639609136</v>
+        <v>0.07224007564980384</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5450,7 +5456,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.06291649205901995</v>
+        <v>0.07170838128347801</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5458,7 +5464,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.06169070123551901</v>
+        <v>0.06906886559029135</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5466,7 +5472,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.06083787247389982</v>
+        <v>0.06598099746056985</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5474,7 +5480,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.0580262399698479</v>
+        <v>0.06592565712939247</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5482,7 +5488,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.05782307703672229</v>
+        <v>0.06525049090935409</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5490,7 +5496,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.05769740678094748</v>
+        <v>0.06479703768755396</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5498,7 +5504,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.05736136380854395</v>
+        <v>0.06473332678189636</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5506,7 +5512,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.05647736002759518</v>
+        <v>0.06234279313595015</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5514,7 +5520,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.05637900906698823</v>
+        <v>0.06187931792725276</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5522,7 +5528,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.05447006414803179</v>
+        <v>0.05515173660824901</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5530,7 +5536,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.0536976124010522</v>
+        <v>0.05184182338064014</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5538,7 +5544,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.049167269807743</v>
+        <v>0.04703099738698224</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5546,7 +5552,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.04792591023542592</v>
+        <v>0.04353451897852434</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5554,7 +5560,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.04516280673550721</v>
+        <v>0.0395118855380292</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5562,7 +5568,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.04055519719694889</v>
+        <v>0.03795602397638254</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5570,7 +5576,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.03754783713972287</v>
+        <v>0.03584955841831805</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5578,7 +5584,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.03686232702331038</v>
+        <v>0.0345894528824533</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5586,7 +5592,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.03559299471692245</v>
+        <v>0.03345507378066426</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5594,7 +5600,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.02993603252618149</v>
+        <v>0.02914082813295016</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5602,7 +5608,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.0266791243093869</v>
+        <v>0.02211098457409122</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5610,7 +5616,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.01631983398111148</v>
+        <v>0.022095263830892</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5618,7 +5624,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.008385848218233516</v>
+        <v>0.01892567414605617</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5626,7 +5632,23 @@
         <v>476</v>
       </c>
       <c r="B478">
+        <v>0.01802418577915077</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B479">
         <v>0.003447944653476753</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.00296207286357264</v>
       </c>
     </row>
   </sheetData>
